--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/10/seed4/result_data_RandomForest.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.4596</v>
+        <v>-13.2876</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.603499999999994</v>
+        <v>6.167299999999995</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.3034</v>
+        <v>-11.4227</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.43569999999999</v>
+        <v>16.53779999999999</v>
       </c>
     </row>
     <row r="16">
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.715399999999996</v>
+        <v>6.6005</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.277799999999997</v>
+        <v>9.280499999999993</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.9173</v>
+        <v>-12.9759</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,10 +890,10 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.533700000000001</v>
+        <v>5.518600000000003</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.79679999999999</v>
+        <v>-12.79549999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.18120000000001</v>
+        <v>-11.18040000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.9117</v>
+        <v>-13.163</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,13 +1080,13 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.563</v>
+        <v>-12.995</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.40799999999999</v>
+        <v>16.27059999999998</v>
       </c>
     </row>
     <row r="39">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.7557</v>
+        <v>16.71649999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1301,13 +1301,13 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.5255</v>
+        <v>-11.7853</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.1716</v>
+        <v>17.3079</v>
       </c>
     </row>
     <row r="52">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.97479999999999</v>
+        <v>-13.65679999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.7886</v>
+        <v>16.7814</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.73830000000002</v>
+        <v>18.68910000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1604,10 +1604,10 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.782799999999997</v>
+        <v>5.964899999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>-12.6208</v>
+        <v>-12.9425</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,13 +1624,13 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.8067</v>
+        <v>-11.8724</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.47420000000001</v>
+        <v>17.4104</v>
       </c>
     </row>
     <row r="71">
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.700699999999999</v>
+        <v>5.695899999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.260399999999999</v>
+        <v>5.684100000000002</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.7303</v>
+        <v>-13.96010000000001</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.5015</v>
+        <v>16.4656</v>
       </c>
     </row>
     <row r="100">
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.9967</v>
+        <v>-13.2265</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
